--- a/ProjectA/TestData/DataDrivenExcel.xlsx
+++ b/ProjectA/TestData/DataDrivenExcel.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
